--- a/data/university/data.xlsx
+++ b/data/university/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -455,49 +455,40 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
       <c r="B3" t="str">
-        <v>34.32875889</v>
+        <v>34.35070836558886</v>
       </c>
       <c r="C3" t="str">
-        <v>134.08769667</v>
+        <v>134.04471966612454</v>
       </c>
       <c r="D3" t="str">
-        <v>高松大学・高松短期大学</v>
+        <v>徳島文理大学　高松駅キャンパス</v>
       </c>
       <c r="E3" t="str">
-        <v>高松市春日町960</v>
+        <v>高松市浜ノ町8-53</v>
       </c>
       <c r="F3" t="str">
-        <v>087-841-3255</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
+        <v>087-899-7100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
-        <v>34.32238194</v>
+        <v>34.32875889</v>
       </c>
       <c r="C4" t="str">
-        <v>134.15811694</v>
+        <v>134.08769667</v>
       </c>
       <c r="D4" t="str">
-        <v>香川県立保健医療大学</v>
+        <v>高松大学・高松短期大学</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市牟礼町原281-1</v>
+        <v>高松市春日町960</v>
       </c>
       <c r="F4" t="str">
-        <v>087-870-1212</v>
+        <v>087-841-3255</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -508,33 +499,59 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>34.32238194</v>
+      </c>
+      <c r="C5" t="str">
+        <v>134.15811694</v>
+      </c>
+      <c r="D5" t="str">
+        <v>香川県立保健医療大学</v>
+      </c>
+      <c r="E5" t="str">
+        <v>高松市牟礼町原281-1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>087-870-1212</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B6" t="str">
         <v>34.29299806</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <v>134.064075</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <v>香川大学工学部</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E6" t="str">
         <v>高松市林町2217-20</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F6" t="str">
         <v>087-864-2000</v>
       </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>